--- a/pred_ohlcv/54_21/2019-10-26 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 XLM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-136243.68443592</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-107529.50663592</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-107529.50743592</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-197692.67873592</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-195878.57433592</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-195878.57433592</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-118198.43243592</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-118198.43243592</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-130492.85913592</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-143999.92973592</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-118933.43113592</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-115770.99773592</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-109046.29943592</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-108867.91223592</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-108867.91223592</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-111375.48673592</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-111375.48673592</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-114279.48673592</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-114279.48673592</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-113979.48673592</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-113979.48673592</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-113979.48673592</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-126560.60893592</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-126560.60893592</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-125772.60893592</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-125772.60893592</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-179006.99043592</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-96610.16703592002</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-96610.16703592002</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-53229.65693592002</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-20490.68363592002</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-20339.67683592002</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>529199.6665640799</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>620931.25836408</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>498866.38666408</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>342365.09346408</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>407927.80846408</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>458691.77234801</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>465458.31447542</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>582962.81937542</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>693229.65477542</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>565297.1494754199</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>493065.8950754199</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>500158.8859754199</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>494882.9973754199</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>494882.9973754199</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>494682.9973754199</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>494682.9973754199</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>620815.4385754198</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2388337.30867542</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2635399.84147542</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2656446.95937542</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2614343.52747542</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2362343.81477542</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2298685.58687542</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-867995.1940676786</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-867995.1940676786</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-907191.5371676786</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-936945.8591676786</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-936945.8591676786</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-908478.4517676786</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-788118.1630676786</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-833784.2729676786</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-875138.1189676786</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-867722.1909676787</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-886134.1808676787</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-882144.0780676787</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-880844.0780676787</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-835107.1564676787</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-772797.5995676788</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-772797.5995676788</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-796095.5075676788</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-788845.5075676788</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-769320.7680676788</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-866084.8896676787</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-866084.8896676787</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-853751.8608676788</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-939007.8801676787</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-939007.8801676787</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-935460.0021676787</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-935460.0021676787</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-994966.6010389187</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-994966.6010389187</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-852021.8621389187</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-852021.8621389187</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-903590.1167389187</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1059626.147438919</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1059626.147438919</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1013385.945138919</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1013385.945138919</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-857455.4935389187</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-583485.0187389187</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-583485.0187389187</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-597755.7493389187</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-653742.4484389187</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-686853.1723389187</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-686813.5538389187</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-678131.5188389187</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-674227.7478389187</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-674227.7478389187</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-752874.0338389187</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-709129.7756389187</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-755737.3460389187</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-755737.3460389187</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-763725.3160389187</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-740910.2191389187</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-754480.7323389187</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-754480.7323389187</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-956066.1065282488</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-1068722.392328249</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-940546.4349282489</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-963498.1532282488</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-1021135.509828249</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-1021135.509828249</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-978498.9368282489</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-1244623.892928249</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-1257317.423828249</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-1617088.129602588</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-1699633.484602588</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-1668844.739702588</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-1668844.739702588</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-1530315.256202588</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-1656983.726602588</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-1644971.760502588</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-1631789.036002588</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-2750383.605491539</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-2767470.196891539</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-2746084.399691539</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-2801428.726291539</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-2991858.540091539</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-2976209.788100289</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-2976209.788100289</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-2984478.538000289</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-2984478.538000289</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-3026976.534400289</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-3006861.501000289</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-2996802.296600289</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-2984061.370200288</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-2990202.653800289</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-3025103.685300289</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-3024000.423000289</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-3040985.354200289</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-3030985.354200289</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-3075177.922600289</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-3157545.765000289</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-3204113.810500289</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-3189781.958700289</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-3209346.096800289</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-3209346.096800289</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-3181932.592900289</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-3204169.592900289</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-3208736.766400289</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-3208736.766400289</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-3134098.756825539</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-3068228.292125539</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 XLM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-136243.68443592</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-136475.44823592</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-107529.50663592</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-107529.50743592</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-197692.67873592</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-195878.57433592</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-195878.57433592</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-118198.43243592</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-118198.43243592</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-130492.85913592</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-127292.85913592</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-143999.92973592</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-118933.43113592</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-115688.99773592</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-115770.99773592</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-109046.29943592</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-108867.91223592</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-108867.91223592</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-111069.09293592</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>529199.6665640799</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>620931.25836408</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>498866.38666408</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>342365.09346408</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>407927.80846408</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>458691.77234801</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>465458.31447542</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>582962.81937542</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>693229.65477542</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>755096.2780754199</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>565297.1494754199</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>493065.8950754199</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>500158.8859754199</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>494882.9973754199</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>494882.9973754199</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>494682.9973754199</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>494682.9973754199</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>498893.3130754199</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>620815.4385754198</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2614343.52747542</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2362343.81477542</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-5972571.13566768</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-5972571.13566768</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-5982571.13566768</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-3982571.13566768</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3982571.13566768</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-3972571.13566768</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-3972571.13566768</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-3972571.13566768</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3972571.13566768</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3969682.07856768</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3974892.92426768</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3974892.92426768</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3974892.92426768</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1774892.92426768</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-969932.3860676787</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1136605.054667679</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1197350.788567679</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1197350.788567679</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1197350.788567679</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-946276.8888676789</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-912214.997267679</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-1103284.895267679</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-1115296.861367679</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1109322.323467679</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-1118234.223467679</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1117247.381367679</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-1142892.975067679</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-1193290.938167679</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1229467.197167679</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-940395.2804676787</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-867995.1940676786</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-867995.1940676786</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-907191.5371676786</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-936945.8591676786</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-936945.8591676786</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-908478.4517676786</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-788118.1630676786</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-833784.2729676786</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-875138.1189676786</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-867722.1909676787</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-886134.1808676787</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-882144.0780676787</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-880844.0780676787</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-835107.1564676787</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-772797.5995676788</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-772797.5995676788</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-796095.5075676788</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-788845.5075676788</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-769320.7680676788</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-866084.8896676787</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-866084.8896676787</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-853751.8608676788</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-906779.8598676787</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-939007.8801676787</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-939007.8801676787</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-935460.0021676787</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-935460.0021676787</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-994966.6010389187</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-994966.6010389187</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-852021.8621389187</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-852021.8621389187</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-903590.1167389187</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1059626.147438919</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1059626.147438919</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1013385.945138919</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1013385.945138919</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-857455.4935389187</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-583485.0187389187</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-583485.0187389187</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-597755.7493389187</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-653742.4484389187</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-686853.1723389187</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-686813.5538389187</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-678131.5188389187</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-674227.7478389187</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-674227.7478389187</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-752874.0338389187</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-733495.4658389187</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-709129.7756389187</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-755737.3460389187</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-755737.3460389187</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-763725.3160389187</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-740910.2191389187</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-754480.7323389187</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-754480.7323389187</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-956066.1065282488</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-1068722.392328249</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-940546.4349282489</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-963498.1532282488</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1040788.882928249</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-1617088.129602588</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-1699633.484602588</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-1668844.739702588</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-1668844.739702588</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-1530315.256202588</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-1656983.726602588</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-1644971.760502588</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-1631789.036002588</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-2750383.605491539</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-2767470.196891539</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-2746284.399691539</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-2746084.399691539</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-2801428.726291539</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-2991858.540091539</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-2976209.788100289</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-2976209.788100289</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-2984478.538000289</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-2984478.538000289</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-3026976.534400289</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-3006861.501000289</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-2996802.296600289</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-2984061.370200288</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-2984496.147800289</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-2990202.653800289</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-3025103.685300289</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-3024000.423000289</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-3040985.354200289</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-3030985.354200289</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-3075177.922600289</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-3157545.765000289</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-3204113.810500289</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-3189781.958700289</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-3209346.096800289</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-3209346.096800289</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-3181932.592900289</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-3204169.592900289</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-3208736.766400289</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-3208736.766400289</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-3134098.756825539</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-3068228.292125539</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
